--- a/biology/Botanique/Jardin_botanique_national_de_Viña_del_Mar/Jardin_botanique_national_de_Viña_del_Mar.xlsx
+++ b/biology/Botanique/Jardin_botanique_national_de_Viña_del_Mar/Jardin_botanique_national_de_Viña_del_Mar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_botanique_national_de_Vi%C3%B1a_del_Mar</t>
+          <t>Jardin_botanique_national_de_Viña_del_Mar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Jardin Botanique National est un jardin botanique de 395 ha, situé à Vigna del Mar, au Chili. Il est constitué des collines de matorral et d'une forêt sclérophylle. Au sein de cet espace il y a 32 ha correspondant à l'ancien parc Le Salitre, bâti par Pascual Baburizza. Actuellement, il est fermé au public à la suite des incendies forestiers subits en 2024, qui ont affecté environ 99% du jardin[1].
+Le Jardin Botanique National est un jardin botanique de 395 ha, situé à Vigna del Mar, au Chili. Il est constitué des collines de matorral et d'une forêt sclérophylle. Au sein de cet espace il y a 32 ha correspondant à l'ancien parc Le Salitre, bâti par Pascual Baburizza. Actuellement, il est fermé au public à la suite des incendies forestiers subits en 2024, qui ont affecté environ 99% du jardin.
 Il est membre du BGCI et présente des travaux pour l'Agenda Internationale pour la Conservation des Jardins Botaniques. Son code de reconnaissance internationale comme institution botanique, ainsi que les sigles de son herbier, est VINAD.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_botanique_national_de_Vi%C3%B1a_del_Mar</t>
+          <t>Jardin_botanique_national_de_Viña_del_Mar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1918 le chef d'entreprise Pascual Baburizza acquiert le domaine agricole El Olivar, où il décide la création d'un jardin dessiné par Georges Dubois. En 1931 il cède la finca à la Compañia de Salitres de Chile (compagnie de salpêtre (ou nitrate) du Chili), établissement qui a été remplacé vers 1935 par une autre compagnie (la Corporatión de Ventas de Salitre y Yodo de Chile), qui a maintenu son usage d'espace ouvert au public tout en réalisant des expérimentations de fertilisants sur les plantes; c'est en partie pour cette raison que le jardin pris le nom de Parque El Salitre[2],[3].
-En 1951 l'institution corporative transfère le domaine à l'État du Chili, qui le désigne désormais sous le nom de Jardin Botanique National, et le converti en un champ d'expérimentation agricole sous l'administration du Conseil de Promotion et Recherche Agricole, organisme ancêtre de l'Institut de Développement Agropastoral. Cette dernière institution transféra le soin du jardin à la Corporation Nationale Forestière du Chili[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1918 le chef d'entreprise Pascual Baburizza acquiert le domaine agricole El Olivar, où il décide la création d'un jardin dessiné par Georges Dubois. En 1931 il cède la finca à la Compañia de Salitres de Chile (compagnie de salpêtre (ou nitrate) du Chili), établissement qui a été remplacé vers 1935 par une autre compagnie (la Corporatión de Ventas de Salitre y Yodo de Chile), qui a maintenu son usage d'espace ouvert au public tout en réalisant des expérimentations de fertilisants sur les plantes; c'est en partie pour cette raison que le jardin pris le nom de Parque El Salitre,.
+En 1951 l'institution corporative transfère le domaine à l'État du Chili, qui le désigne désormais sous le nom de Jardin Botanique National, et le converti en un champ d'expérimentation agricole sous l'administration du Conseil de Promotion et Recherche Agricole, organisme ancêtre de l'Institut de Développement Agropastoral. Cette dernière institution transféra le soin du jardin à la Corporation Nationale Forestière du Chili,.
 Dans l'objectif de lui donner une plus grande autonomie, d'améliorer l'opérabilité et d'élargir les formes de financement, en détachant l'administration des institutions du ministère de l'Agriculture, la Fondation du Jardin botanique national gère le site depuis 1992.
-À la suite des incendies forestiers qui affectent diverses régions du Chili à partir du 2 février 2024, le jardin a été détruit sur 99% de sa superficie, en étant affectés les lots À, B et C d'est. Ces incendies ont causé des victimes au sein du jardin, ainsi 4 personnes ont été retrouvées mortes, celles-ci sont une employée du domaine chargée de la zone d'horticulture et 3 membres de sa famille qui se trouvaient dans son foyer à l'intérieur du jardin[1].
+À la suite des incendies forestiers qui affectent diverses régions du Chili à partir du 2 février 2024, le jardin a été détruit sur 99% de sa superficie, en étant affectés les lots À, B et C d'est. Ces incendies ont causé des victimes au sein du jardin, ainsi 4 personnes ont été retrouvées mortes, celles-ci sont une employée du domaine chargée de la zone d'horticulture et 3 membres de sa famille qui se trouvaient dans son foyer à l'intérieur du jardin.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_botanique_national_de_Vi%C3%B1a_del_Mar</t>
+          <t>Jardin_botanique_national_de_Viña_del_Mar</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Collections botaniques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>En tout, le JBN cultivait 779 espèces de plantes chiliennes natives, dont plusieurs ayant un statut de conservation menacé.
 Presque la totalité de ces espèces de plantes ont brûlé pendant le grand incendie de 2024, de même que beaucoup de faune sylvestre.
@@ -571,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jardin_botanique_national_de_Vi%C3%B1a_del_Mar</t>
+          <t>Jardin_botanique_national_de_Viña_del_Mar</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,7 +605,9 @@
           <t>Activités et services</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Travaux sur la nutrition des plantes.
 Travaux d'exploration.
